--- a/src/assets/file/ExcelToJSON.xlsx
+++ b/src/assets/file/ExcelToJSON.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="231">
   <si>
     <t>狀態</t>
   </si>
@@ -19,7 +19,7 @@
     <t>預計開始日</t>
   </si>
   <si>
-    <t>實際完成日</t>
+    <t>預計完成日</t>
   </si>
   <si>
     <t>名稱</t>
@@ -37,244 +37,604 @@
     <t>已完成</t>
   </si>
   <si>
-    <t>2023-08</t>
-  </si>
-  <si>
-    <t>測試表單</t>
-  </si>
-  <si>
-    <t>/nav1-1-1</t>
-  </si>
-  <si>
-    <t>選單1</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-1 / 測試表單</t>
-  </si>
-  <si>
-    <t>清單列表</t>
-  </si>
-  <si>
-    <t>/nav1-1-2</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-1 / 清單列表</t>
-  </si>
-  <si>
-    <t>無權限1-1-3</t>
-  </si>
-  <si>
-    <t>/nav1-1-3</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-1 / 無權限1-1-3</t>
-  </si>
-  <si>
-    <t>行事曆</t>
-  </si>
-  <si>
-    <t>/nav1-1-4</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-1 / 行事曆</t>
-  </si>
-  <si>
-    <t>時間線測試</t>
-  </si>
-  <si>
-    <t>/nav1-1-5</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-1 / 時間線測試</t>
-  </si>
-  <si>
-    <t>無權限1-2-1</t>
-  </si>
-  <si>
-    <t>/nav1-2-1</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-2 / 無權限1-2-1</t>
-  </si>
-  <si>
-    <t>時間線測試2</t>
-  </si>
-  <si>
-    <t>/nav1-2-2</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-2 / 時間線測試2</t>
-  </si>
-  <si>
-    <t>多列表單編輯</t>
-  </si>
-  <si>
-    <t>/nav1-2-3</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-2 / 多列表單編輯</t>
-  </si>
-  <si>
-    <t>眼睛跟滑鼠</t>
-  </si>
-  <si>
-    <t>/nav1-2-4</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-2 / 眼睛跟滑鼠</t>
-  </si>
-  <si>
-    <t>QRcode</t>
-  </si>
-  <si>
-    <t>/nav-1-2-5</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-2 / QRcode</t>
-  </si>
-  <si>
-    <t>測試檔案上傳</t>
-  </si>
-  <si>
-    <t>/nav1-3</t>
-  </si>
-  <si>
-    <t>選單1 / 測試檔案上傳</t>
-  </si>
-  <si>
-    <t>甘特圖測試</t>
-  </si>
-  <si>
-    <t>/nav1-4-1</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-4 / 甘特圖測試</t>
-  </si>
-  <si>
-    <t>2023-09</t>
-  </si>
-  <si>
-    <t>輸入框換架構</t>
-  </si>
-  <si>
-    <t>/nav1-4-2</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-4 / 輸入框換架構</t>
-  </si>
-  <si>
-    <t>選單1-4-3</t>
-  </si>
-  <si>
-    <t>/nav1-4-3</t>
-  </si>
-  <si>
-    <t>選單1 / 選單1-4 / 選單1-4-3</t>
-  </si>
-  <si>
-    <t>選單2</t>
-  </si>
-  <si>
-    <t>/nav2</t>
-  </si>
-  <si>
-    <t>手寫虛擬列表</t>
-  </si>
-  <si>
-    <t>/nav3-1-1</t>
-  </si>
-  <si>
-    <t>選單3</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-1 / 手寫虛擬列表</t>
-  </si>
-  <si>
-    <t>Clusterize.js虛擬列表</t>
-  </si>
-  <si>
-    <t>/nav3-1-2</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-1 / Clusterize.js虛擬列表</t>
-  </si>
-  <si>
-    <t>一般列表懶加載</t>
-  </si>
-  <si>
-    <t>/nav3-1-3</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-1 / 一般列表懶加載</t>
-  </si>
-  <si>
-    <t>虛擬列表資訊來源</t>
-  </si>
-  <si>
-    <t>/nav3-2-1</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-2 / 虛擬列表資訊來源</t>
-  </si>
-  <si>
-    <t>UxeTable取代ElTable</t>
-  </si>
-  <si>
-    <t>/nav3-2-2</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-2 / UxeTable取代ElTable</t>
-  </si>
-  <si>
-    <t>拖拉測試</t>
-  </si>
-  <si>
-    <t>/nav3-2-3</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-2 / 拖拉測試</t>
-  </si>
-  <si>
-    <t>選單3-2-4</t>
-  </si>
-  <si>
-    <t>/nav3-2-4</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-2 / 選單3-2-4</t>
+    <t/>
+  </si>
+  <si>
+    <t>機台工時資訊</t>
+  </si>
+  <si>
+    <t>/fund-141</t>
+  </si>
+  <si>
+    <t>排程參數維護</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 產品 / 機台工時資訊</t>
+  </si>
+  <si>
+    <t>產品基本資訊</t>
+  </si>
+  <si>
+    <t>/fund-113</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 產品 / 產品基本資訊</t>
+  </si>
+  <si>
+    <t>併批產品資訊</t>
+  </si>
+  <si>
+    <t>/fund-115</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 產品 / 併批產品資訊</t>
+  </si>
+  <si>
+    <t>生產途程資訊</t>
+  </si>
+  <si>
+    <t>/fund-121</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 途程 / 生產途程資訊</t>
+  </si>
+  <si>
+    <t>機台基本資訊</t>
+  </si>
+  <si>
+    <t>/fund-122</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 途程 / 機台基本資訊</t>
+  </si>
+  <si>
+    <t>製程站點資訊</t>
+  </si>
+  <si>
+    <t>/fund-131</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 製程站點 / 製程站點資訊</t>
+  </si>
+  <si>
+    <t>機台對應製程</t>
+  </si>
+  <si>
+    <t>/fund-132</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 製程站點 / 機台對應製程</t>
+  </si>
+  <si>
+    <t>區域資訊</t>
+  </si>
+  <si>
+    <t>/fund-1411</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 區域資訊</t>
+  </si>
+  <si>
+    <t>/fund-1413</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 機台基本資訊</t>
+  </si>
+  <si>
+    <t>機台演算規則</t>
+  </si>
+  <si>
+    <t>/fund-1414</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 機台演算規則</t>
+  </si>
+  <si>
+    <t>產能工時資訊</t>
+  </si>
+  <si>
+    <t>/fund-1415</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 產能工時資訊</t>
+  </si>
+  <si>
+    <t>機台保養工時</t>
+  </si>
+  <si>
+    <t>/fund-1417</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 機台保養工時</t>
+  </si>
+  <si>
+    <t>工單排程順序管理</t>
+  </si>
+  <si>
+    <t>/fund-1426</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 工單排程順序管理</t>
+  </si>
+  <si>
+    <t>一貫機連續生產規則管理</t>
+  </si>
+  <si>
+    <t>/fund-1427</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 一貫機連續生產規則管理</t>
+  </si>
+  <si>
+    <t>併批工單排程順序管理</t>
+  </si>
+  <si>
+    <t>/fund-1429</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 併批工單排程順序管理</t>
+  </si>
+  <si>
+    <t>併批製程識別設定</t>
+  </si>
+  <si>
+    <t>/fund-1431</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 併批製程識別設定</t>
+  </si>
+  <si>
+    <t>機台限制參數延伸元資料設定</t>
+  </si>
+  <si>
+    <t>/fund-1432</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 機台限制參數延伸元資料設定</t>
+  </si>
+  <si>
+    <t>機台生產線限制資訊</t>
+  </si>
+  <si>
+    <t>/fund-1433</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 機台生產線限制資訊</t>
   </si>
   <si>
     <t>未完成</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>選單3-3-1</t>
-  </si>
-  <si>
-    <t>/nav3-3-1</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-3 / 選單3-3-1</t>
-  </si>
-  <si>
-    <t>選單3-3-3</t>
-  </si>
-  <si>
-    <t>/nav3-3-3</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-3 / 選單3-3-3</t>
-  </si>
-  <si>
-    <t>選單3-3-4</t>
-  </si>
-  <si>
-    <t>/nav3-3-4</t>
-  </si>
-  <si>
-    <t>選單3 / 選單3-3 / 選單3-3-4</t>
+    <t>途程型態分類設定</t>
+  </si>
+  <si>
+    <t>/fund-1434</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 機台 / 途程型態分類設定</t>
+  </si>
+  <si>
+    <t>進行中</t>
+  </si>
+  <si>
+    <t>月計畫上傳</t>
+  </si>
+  <si>
+    <t>/fund-1601</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 月計畫上傳</t>
+  </si>
+  <si>
+    <t>預估產能計算</t>
+  </si>
+  <si>
+    <t>/fund-1602</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 預估產能計算</t>
+  </si>
+  <si>
+    <t>產品族產能管理</t>
+  </si>
+  <si>
+    <t>/fund-1603</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 產品族產能管理</t>
+  </si>
+  <si>
+    <t>機台分配管理</t>
+  </si>
+  <si>
+    <t>/fund-1604</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 機台分配管理</t>
+  </si>
+  <si>
+    <t>客戶型號權值繼承</t>
+  </si>
+  <si>
+    <t>/fund-1605</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 客戶型號權值繼承</t>
+  </si>
+  <si>
+    <t>站點貨批派機條件設定</t>
+  </si>
+  <si>
+    <t>/fund-1606</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 站點貨批派機條件設定</t>
+  </si>
+  <si>
+    <t>製程機台區間束線設定</t>
+  </si>
+  <si>
+    <t>/fund-1607</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 製程機台區間束線設定</t>
+  </si>
+  <si>
+    <t>資源警示</t>
+  </si>
+  <si>
+    <t>/fund-1608</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 資源警示</t>
+  </si>
+  <si>
+    <t>站點整效預設值管理</t>
+  </si>
+  <si>
+    <t>/fund-1609</t>
+  </si>
+  <si>
+    <t>排程參數維護 / 進階參數 / 站點整效預設值管理</t>
+  </si>
+  <si>
+    <t>訂單資訊</t>
+  </si>
+  <si>
+    <t>/auto-112</t>
+  </si>
+  <si>
+    <t>排程自動化</t>
+  </si>
+  <si>
+    <t>排程自動化 / 一般排程作業 / 訂單資訊</t>
+  </si>
+  <si>
+    <t>參數設定及排程</t>
+  </si>
+  <si>
+    <t>/auto-13</t>
+  </si>
+  <si>
+    <t>排程自動化 / 一般排程作業 / 參數設定及排程</t>
+  </si>
+  <si>
+    <t>工單預覽</t>
+  </si>
+  <si>
+    <t>/auto-31-SG</t>
+  </si>
+  <si>
+    <t>排程自動化 / 排程預覽及發放 / 工單預覽</t>
+  </si>
+  <si>
+    <t>生產細部排程預覽</t>
+  </si>
+  <si>
+    <t>/auto-32-SG</t>
+  </si>
+  <si>
+    <t>排程自動化 / 排程預覽及發放 / 生產細部排程預覽</t>
+  </si>
+  <si>
+    <t>甘特圖預覽</t>
+  </si>
+  <si>
+    <t>/auto-33</t>
+  </si>
+  <si>
+    <t>排程自動化 / 排程預覽及發放 / 甘特圖預覽</t>
+  </si>
+  <si>
+    <t>工單額外排程參數</t>
+  </si>
+  <si>
+    <t>/auto-34</t>
+  </si>
+  <si>
+    <t>排程自動化 / 排程預覽及發放 / 工單額外排程參數</t>
+  </si>
+  <si>
+    <t>工單工廠廠域變更歷史紀錄</t>
+  </si>
+  <si>
+    <t>/auto-35</t>
+  </si>
+  <si>
+    <t>排程自動化 / 排程預覽及發放 / 工單工廠廠域變更歷史紀錄</t>
+  </si>
+  <si>
+    <t>工作站生產看板</t>
+  </si>
+  <si>
+    <t>/apspub-11</t>
+  </si>
+  <si>
+    <t>排程看板發放</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 生產看板 / 工作站生產看板</t>
+  </si>
+  <si>
+    <t>生產看板回報</t>
+  </si>
+  <si>
+    <t>/apspub-12</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 生產看板 / 生產看板回報</t>
+  </si>
+  <si>
+    <t>生產看板定義</t>
+  </si>
+  <si>
+    <t>/apspub-31</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 看板管理 / 生產看板定義</t>
+  </si>
+  <si>
+    <t>包裝線別管理</t>
+  </si>
+  <si>
+    <t>/apspub-32</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 看板管理 / 包裝線別管理</t>
+  </si>
+  <si>
+    <t>製程站點顯示管理</t>
+  </si>
+  <si>
+    <t>/apspub-33</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 看板管理 / 製程站點顯示管理</t>
+  </si>
+  <si>
+    <t>包裝線別規則管理</t>
+  </si>
+  <si>
+    <t>/apspub-34</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 看板管理 / 包裝線別規則管理</t>
+  </si>
+  <si>
+    <t>機台待製鎖批</t>
+  </si>
+  <si>
+    <t>/apspub-38</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 看板管理 / 機台待製鎖批</t>
+  </si>
+  <si>
+    <t>重工資訊</t>
+  </si>
+  <si>
+    <t>/apspub-41</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 生產現況 / 重工資訊</t>
+  </si>
+  <si>
+    <t>機台狀態資訊</t>
+  </si>
+  <si>
+    <t>/apspub-42</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 生產現況 / 機台狀態資訊</t>
+  </si>
+  <si>
+    <t>機況歷史記錄</t>
+  </si>
+  <si>
+    <t>/apspub-45</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 生產現況 / 機況歷史記錄</t>
+  </si>
+  <si>
+    <t>收貨看板</t>
+  </si>
+  <si>
+    <t>/apspub-51</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 出入看板 / 收貨看板</t>
+  </si>
+  <si>
+    <t>出貨看板</t>
+  </si>
+  <si>
+    <t>/apspub-52</t>
+  </si>
+  <si>
+    <t>排程看板發放 / 出入看板 / 出貨看板</t>
+  </si>
+  <si>
+    <t>資源基本資料</t>
+  </si>
+  <si>
+    <t>/optimiz-21</t>
+  </si>
+  <si>
+    <t>資源管理</t>
+  </si>
+  <si>
+    <t>資源管理 / 基本維護 / 資源基本資料</t>
+  </si>
+  <si>
+    <t>資源所在位置</t>
+  </si>
+  <si>
+    <t>/optimiz-22</t>
+  </si>
+  <si>
+    <t>資源管理 / 基本維護 / 資源所在位置</t>
+  </si>
+  <si>
+    <t>資源消耗</t>
+  </si>
+  <si>
+    <t>/optimiz-24</t>
+  </si>
+  <si>
+    <t>資源管理 / 基本維護 / 資源消耗</t>
+  </si>
+  <si>
+    <t>資源裝卸載</t>
+  </si>
+  <si>
+    <t>/optimiz-25</t>
+  </si>
+  <si>
+    <t>資源管理 / 基本維護 / 資源裝卸載</t>
+  </si>
+  <si>
+    <t>資源型態</t>
+  </si>
+  <si>
+    <t>/optimiz-26</t>
+  </si>
+  <si>
+    <t>資源管理 / 基本維護 / 資源型態</t>
+  </si>
+  <si>
+    <t>資源轉移時間</t>
+  </si>
+  <si>
+    <t>/optimiz-27</t>
+  </si>
+  <si>
+    <t>資源管理 / 基本維護 / 資源轉移時間</t>
+  </si>
+  <si>
+    <t>資源排程甘特圖</t>
+  </si>
+  <si>
+    <t>/optimiz-31</t>
+  </si>
+  <si>
+    <t>資源管理 / 進階維護 / 資源排程甘特圖</t>
+  </si>
+  <si>
+    <t>基本設定傳輸</t>
+  </si>
+  <si>
+    <t>/rtds-11</t>
+  </si>
+  <si>
+    <t>RTDS</t>
+  </si>
+  <si>
+    <t>RTDS / 基本設定傳輸</t>
+  </si>
+  <si>
+    <t>運算器部署設定</t>
+  </si>
+  <si>
+    <t>/rtds-12</t>
+  </si>
+  <si>
+    <t>RTDS / 運算器部署設定</t>
+  </si>
+  <si>
+    <t>運算器</t>
+  </si>
+  <si>
+    <t>/rtds-13</t>
+  </si>
+  <si>
+    <t>RTDS / 運算器</t>
+  </si>
+  <si>
+    <t>運算器狀態看板</t>
+  </si>
+  <si>
+    <t>/rtds-15</t>
+  </si>
+  <si>
+    <t>RTDS / 運算器狀態看板</t>
+  </si>
+  <si>
+    <t>ETL REST</t>
+  </si>
+  <si>
+    <t>/rtds-16</t>
+  </si>
+  <si>
+    <t>RTDS / ETL REST</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>/rtds-17</t>
+  </si>
+  <si>
+    <t>RTDS / DEBUG</t>
+  </si>
+  <si>
+    <t>ChangeDefaultSetting</t>
+  </si>
+  <si>
+    <t>/rtds-18</t>
+  </si>
+  <si>
+    <t>RTDS / ChangeDefaultSetting</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>/nodoc-21</t>
+  </si>
+  <si>
+    <t>系統安全管理</t>
+  </si>
+  <si>
+    <t>系統安全管理 / 角色管理</t>
+  </si>
+  <si>
+    <t>群組管理</t>
+  </si>
+  <si>
+    <t>/nodoc-22</t>
+  </si>
+  <si>
+    <t>系統安全管理 / 群組管理</t>
+  </si>
+  <si>
+    <t>使用者管理</t>
+  </si>
+  <si>
+    <t>/nodoc-23</t>
+  </si>
+  <si>
+    <t>系統安全管理 / 使用者管理</t>
   </si>
   <si>
     <t>CustomButton</t>
@@ -304,13 +664,10 @@
     <t>/feature-list</t>
   </si>
   <si>
-    <t>開發查詢工具</t>
-  </si>
-  <si>
-    <t>開發查詢工具 / 功能列表</t>
-  </si>
-  <si>
-    <t>進行中</t>
+    <t>開發工具</t>
+  </si>
+  <si>
+    <t>開發工具 / 功能列表</t>
   </si>
   <si>
     <t>翻譯值列表</t>
@@ -319,7 +676,7 @@
     <t>/i18n-list</t>
   </si>
   <si>
-    <t>開發查詢工具 / 翻譯值列表</t>
+    <t>開發工具 / 翻譯值列表</t>
   </si>
   <si>
     <t>Excel工具</t>
@@ -328,7 +685,7 @@
     <t>/excel-utils</t>
   </si>
   <si>
-    <t>開發查詢工具 / Excel工具</t>
+    <t>開發工具 / Excel工具</t>
   </si>
   <si>
     <t>功能樹狀表</t>
@@ -337,7 +694,7 @@
     <t>/search-view</t>
   </si>
   <si>
-    <t>開發查詢工具 / 功能樹狀表</t>
+    <t>開發工具 / 功能樹狀表</t>
   </si>
   <si>
     <t>工作進度表</t>
@@ -346,106 +703,7 @@
     <t>/schedule</t>
   </si>
   <si>
-    <t>開發查詢工具 / 工作進度表</t>
-  </si>
-  <si>
-    <t>測試頁面-1</t>
-  </si>
-  <si>
-    <t>/page1-test</t>
-  </si>
-  <si>
-    <t>組件測試</t>
-  </si>
-  <si>
-    <t>組件測試 / 測試頁面-1</t>
-  </si>
-  <si>
-    <t>多行編輯測試</t>
-  </si>
-  <si>
-    <t>/form-list-test</t>
-  </si>
-  <si>
-    <t>組件測試 / 多行編輯測試</t>
-  </si>
-  <si>
-    <t>一周時間分配組件測試</t>
-  </si>
-  <si>
-    <t>/week-schedule-test</t>
-  </si>
-  <si>
-    <t>組件測試 / 一周時間分配組件測試</t>
-  </si>
-  <si>
-    <t>AJAX測試</t>
-  </si>
-  <si>
-    <t>/ajax-test</t>
-  </si>
-  <si>
-    <t>組件測試 / AJAX測試</t>
-  </si>
-  <si>
-    <t>純資料表單測試</t>
-  </si>
-  <si>
-    <t>/data-table-test</t>
-  </si>
-  <si>
-    <t>組件測試 / 純資料表單測試</t>
-  </si>
-  <si>
-    <t>輸入框測試</t>
-  </si>
-  <si>
-    <t>/input-test</t>
-  </si>
-  <si>
-    <t>組件測試 / 輸入框測試</t>
-  </si>
-  <si>
-    <t>彈窗測試</t>
-  </si>
-  <si>
-    <t>/alert-test</t>
-  </si>
-  <si>
-    <t>組件測試 / 彈窗測試</t>
-  </si>
-  <si>
-    <t>i18n翻譯測試</t>
-  </si>
-  <si>
-    <t>/i18n-test</t>
-  </si>
-  <si>
-    <t>組件測試 / i18n翻譯測試</t>
-  </si>
-  <si>
-    <t>表單測試</t>
-  </si>
-  <si>
-    <t>/table-test</t>
-  </si>
-  <si>
-    <t>組件測試 / 表單測試</t>
-  </si>
-  <si>
-    <t>Excel測試</t>
-  </si>
-  <si>
-    <t>/excel-test</t>
-  </si>
-  <si>
-    <t>組件測試 / Excel測試</t>
-  </si>
-  <si>
-    <t>教育訓練</t>
-  </si>
-  <si>
-    <t>/educate-test</t>
+    <t>開發工具 / 工作進度表</t>
   </si>
 </sst>
 </file>
@@ -828,10 +1086,10 @@
   <sheetPr>
     <tabColor rgb="3D8BFF"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G72"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="3" width="13" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
@@ -1057,16 +1315,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1080,16 +1338,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1103,16 +1361,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1126,16 +1384,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,22 +1401,22 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1172,16 +1430,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,13 +1453,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>53</v>
@@ -1218,16 +1476,16 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1241,16 +1499,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1264,21 +1522,21 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -1287,21 +1545,21 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -1316,7 +1574,7 @@
         <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>70</v>
@@ -1324,7 +1582,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -1339,7 +1597,7 @@
         <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>73</v>
@@ -1362,7 +1620,7 @@
         <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>76</v>
@@ -1370,71 +1628,71 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,45 +1700,45 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,68 +1746,68 @@
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1557,22 +1815,22 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,22 +1838,22 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1603,22 +1861,22 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,22 +1884,22 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1649,22 +1907,22 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1672,183 +1930,827 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>143</v>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
